--- a/WebContent/static/doc/fwff.xlsx
+++ b/WebContent/static/doc/fwff.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{87890C6F-6ADB-40D7-B3C5-8A18DC7465BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="1230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="7560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方法注册" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>服务标识</t>
   </si>
@@ -56,13 +58,21 @@
   </si>
   <si>
     <t>方法类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应结果限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应结果是否封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,6 +235,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,6 +287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,26 +479,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,10 +536,17 @@
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>